--- a/individual_results/avey/299.xlsx
+++ b/individual_results/avey/299.xlsx
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K2" t="n">
         <v>0.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3" t="n">
         <v>0.3333333333333333</v>
@@ -605,9 +605,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0.5</v>
@@ -619,12 +617,14 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K4" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="M4" t="n">
         <v>0.4</v>
       </c>
@@ -645,9 +645,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0.3571428571428571</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.3846153846153846</v>
@@ -659,12 +657,14 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0.3846153846153846</v>
+      </c>
       <c r="M5" t="n">
         <v>0.3571428571428571</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2015151419005024</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0.1064646477465997</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9467676761267002</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="K6" t="n">
         <v>0.3079797896471021</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.319393943239799</v>
       </c>
       <c r="M6" t="n">
         <v>0.1064646477465997</v>
